--- a/Workshop_Eredmenyek.xlsx
+++ b/Workshop_Eredmenyek.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csandras\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csandras\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACD15C2-DAFE-4165-AED9-57A5F9E5892C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD7BB4D-C9E4-48EB-8630-E30C22C4D392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Workshop" sheetId="1" r:id="rId1"/>
+    <sheet name="Jelenlét" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>NeptunKod</t>
   </si>
@@ -86,23 +87,57 @@
     <t>F6T7UE</t>
   </si>
   <si>
-    <t>Nem kuldott neptunkodot</t>
-  </si>
-  <si>
     <t>NeptunPlaceholder</t>
+  </si>
+  <si>
+    <t>JB9072</t>
+  </si>
+  <si>
+    <t>Óra 1.</t>
+  </si>
+  <si>
+    <t>Óra 2.</t>
+  </si>
+  <si>
+    <t>Óra 3.</t>
+  </si>
+  <si>
+    <t>Óra 4.</t>
+  </si>
+  <si>
+    <t>Óra 5.</t>
+  </si>
+  <si>
+    <t>✔️</t>
+  </si>
+  <si>
+    <t>❌</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,22 +160,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -174,11 +228,26 @@
   <autoFilter ref="A1:F14" xr:uid="{FA7F7CB6-6AEC-4DDB-9F5B-64D26E1C7A03}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{03F695DC-DF17-424A-B583-934B15DB233F}" name="NeptunKod"/>
-    <tableColumn id="2" xr3:uid="{9FDE2BA5-4E99-465B-8CAD-9FF571E3865D}" name="Workshop 1." dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{5CE4A692-BF95-4EE9-8F87-782ABF3CED82}" name="Workshop 2." dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{84CCB63A-B730-4DC1-A5B3-03C21DB98893}" name="Workshop 3." dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4B8008E3-4E11-4BB7-BC6E-5014D4F68625}" name="Workshop 4." dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{C7DD851A-D619-4515-A7FC-AD3A9EE1C6C2}" name="Workshop 5." dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{9FDE2BA5-4E99-465B-8CAD-9FF571E3865D}" name="Workshop 1." dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{5CE4A692-BF95-4EE9-8F87-782ABF3CED82}" name="Workshop 2." dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{84CCB63A-B730-4DC1-A5B3-03C21DB98893}" name="Workshop 3." dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{4B8008E3-4E11-4BB7-BC6E-5014D4F68625}" name="Workshop 4." dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{C7DD851A-D619-4515-A7FC-AD3A9EE1C6C2}" name="Workshop 5." dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12282CC9-5169-45B2-8970-1FF55CA31CC4}" name="Táblázat13" displayName="Táblázat13" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{12282CC9-5169-45B2-8970-1FF55CA31CC4}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CFC9B3D0-AA52-4E48-BC6B-548B5BBE8C8A}" name="NeptunKod"/>
+    <tableColumn id="2" xr3:uid="{DC23A9FC-4516-429F-8BA2-3FEFE436447F}" name="Óra 1." dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E897B687-7820-4C03-9BBC-FF3C1790A32A}" name="Óra 2." dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{D0AA8C3B-332E-4C67-86BE-5120CB39C9F6}" name="Óra 3." dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{211419DF-C121-40DE-ACBC-952EFD56C629}" name="Óra 4." dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{41DE1980-7512-4B1E-98F6-4F6F02265278}" name="Óra 5." dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC42F13-175D-46AA-92E3-29C9351D9F2D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,10 +609,12 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -552,10 +623,12 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -564,22 +637,22 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -588,10 +661,10 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -600,10 +673,10 @@
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -612,10 +685,10 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -624,10 +697,12 @@
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -636,10 +711,10 @@
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -648,10 +723,10 @@
       <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -660,34 +735,257 @@
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C3B26-BF7F-466C-A139-957337545C42}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workshop_Eredmenyek.xlsx
+++ b/Workshop_Eredmenyek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csandras\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD7BB4D-C9E4-48EB-8630-E30C22C4D392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE26B711-C727-462E-9D2F-8F3296F84E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>NeptunKod</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>❌</t>
+  </si>
+  <si>
+    <t>BW27PY</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -637,7 +640,9 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -649,7 +654,9 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -661,7 +668,9 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -673,7 +682,9 @@
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>0.5</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -685,7 +696,9 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -711,7 +724,9 @@
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -723,7 +738,9 @@
       <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -735,19 +752,23 @@
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -759,7 +780,9 @@
       <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -778,7 +801,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,7 +868,9 @@
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -871,7 +896,9 @@
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -883,7 +910,9 @@
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -895,7 +924,9 @@
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -949,19 +980,23 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -973,7 +1008,9 @@
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>

--- a/Workshop_Eredmenyek.xlsx
+++ b/Workshop_Eredmenyek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csandras\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE26B711-C727-462E-9D2F-8F3296F84E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50774A9-E992-4731-A267-FA27A43CC126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>NeptunKod</t>
   </si>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC42F13-175D-46AA-92E3-29C9351D9F2D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +769,9 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
@@ -800,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C3B26-BF7F-466C-A139-957337545C42}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,7 +873,9 @@
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
@@ -885,7 +889,9 @@
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
@@ -899,7 +905,9 @@
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
@@ -927,7 +935,9 @@
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
@@ -969,7 +979,9 @@
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
@@ -997,7 +1009,9 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>

--- a/Workshop_Eredmenyek.xlsx
+++ b/Workshop_Eredmenyek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csandras\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50774A9-E992-4731-A267-FA27A43CC126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F23693C-4EDD-41B9-A6A3-A589095D1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>NeptunKod</t>
   </si>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC42F13-175D-46AA-92E3-29C9351D9F2D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +615,9 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -629,7 +631,9 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
@@ -643,7 +647,9 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
@@ -657,7 +663,9 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
@@ -671,7 +679,9 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
@@ -685,7 +695,9 @@
       <c r="C7" s="2">
         <v>0.5</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
@@ -699,7 +711,9 @@
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
@@ -713,7 +727,9 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
@@ -727,7 +743,9 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
@@ -741,7 +759,9 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
@@ -755,7 +775,9 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -785,7 +807,9 @@
       <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
@@ -802,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C3B26-BF7F-466C-A139-957337545C42}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,7 +869,9 @@
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -859,7 +885,9 @@
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
@@ -921,7 +949,9 @@
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
@@ -951,7 +981,9 @@
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
@@ -965,7 +997,9 @@
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
@@ -995,7 +1029,9 @@
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -1025,7 +1061,9 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>

--- a/Workshop_Eredmenyek.xlsx
+++ b/Workshop_Eredmenyek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csandras\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F23693C-4EDD-41B9-A6A3-A589095D1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2F91BF-D270-42BC-8A15-592EE933842C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11325" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop" sheetId="1" r:id="rId1"/>
@@ -575,17 +575,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC42F13-175D-46AA-92E3-29C9351D9F2D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -632,12 +632,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -717,7 +717,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -749,7 +749,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -781,7 +781,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -792,12 +792,12 @@
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -826,17 +826,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C3B26-BF7F-466C-A139-957337545C42}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -886,12 +886,12 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -923,7 +923,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -939,7 +939,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1035,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1067,13 +1067,13 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D21" s="4"/>
     </row>
   </sheetData>

--- a/Workshop_Eredmenyek.xlsx
+++ b/Workshop_Eredmenyek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csandras\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2F91BF-D270-42BC-8A15-592EE933842C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE473E49-36EB-4B67-A9DF-73586794A968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11325" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
+    <workbookView xWindow="2868" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
   <si>
     <t>NeptunKod</t>
   </si>
@@ -87,9 +87,6 @@
     <t>F6T7UE</t>
   </si>
   <si>
-    <t>NeptunPlaceholder</t>
-  </si>
-  <si>
     <t>JB9072</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>BW27PY</t>
+  </si>
+  <si>
+    <t>FAJ5NY</t>
   </si>
 </sst>
 </file>
@@ -576,16 +576,16 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -618,10 +618,12 @@
       <c r="D2" s="2">
         <v>0.5</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -634,10 +636,12 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -650,12 +654,14 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -666,10 +672,12 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -682,10 +690,12 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -698,10 +708,12 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -714,10 +726,12 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -730,10 +744,12 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -746,10 +762,12 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -762,10 +780,12 @@
       <c r="D11" s="2">
         <v>0.5</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>0.5</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,29 +798,33 @@
       <c r="D12" s="2">
         <v>0.5</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>0.5</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
@@ -810,7 +834,9 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
   </sheetData>
@@ -827,253 +853,279 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D21" s="4"/>
     </row>
   </sheetData>

--- a/Workshop_Eredmenyek.xlsx
+++ b/Workshop_Eredmenyek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csandras\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE473E49-36EB-4B67-A9DF-73586794A968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A700A22-F6CC-43E3-88B7-0CC81E4A9A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
+    <workbookView xWindow="2868" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC42F13-175D-46AA-92E3-29C9351D9F2D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C3B26-BF7F-466C-A139-957337545C42}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" activeCellId="1" sqref="C14 J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,7 +1109,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>

--- a/Workshop_Eredmenyek.xlsx
+++ b/Workshop_Eredmenyek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csandras\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Letoltesek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A700A22-F6CC-43E3-88B7-0CC81E4A9A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E321789-FB9F-4BD6-B2C5-A1C4E71BEBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
+    <workbookView xWindow="264" yWindow="1812" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{49FAC69A-0B30-4466-9ADA-E8233F24C534}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
   <si>
     <t>NeptunKod</t>
   </si>
@@ -576,7 +576,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,9 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -639,7 +641,9 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -657,7 +661,9 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -675,7 +681,9 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -693,7 +701,9 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -711,7 +721,9 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -729,7 +741,9 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -747,7 +761,9 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -765,7 +781,9 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -783,7 +801,9 @@
       <c r="E11" s="2">
         <v>0.5</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -801,7 +821,9 @@
       <c r="E12" s="2">
         <v>0.5</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -819,7 +841,9 @@
       <c r="E13" s="2">
         <v>0.5</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -837,7 +861,9 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -853,7 +879,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" activeCellId="1" sqref="C14 J7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,7 +927,9 @@
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -919,7 +947,9 @@
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -937,7 +967,9 @@
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -955,7 +987,9 @@
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -973,7 +1007,9 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -991,7 +1027,9 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1009,7 +1047,9 @@
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1027,7 +1067,9 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1045,7 +1087,9 @@
       <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1063,7 +1107,9 @@
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1081,7 +1127,9 @@
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1099,7 +1147,9 @@
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1117,7 +1167,9 @@
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D19" s="5"/>
